--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,63 +251,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +324,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +519,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -527,13 +528,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +544,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +553,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +562,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,12 +572,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -607,7 +608,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -626,7 +627,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -638,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,10 +648,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -681,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -724,13 +725,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -739,10 +740,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -771,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="K2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -815,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -835,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -856,13 +857,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
@@ -871,16 +872,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -924,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -959,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -994,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -1066,15 +1067,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1083,16 +1084,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1139,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -1179,9 +1180,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -875,7 +875,7 @@
     <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,63 +251,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +324,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +519,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -527,13 +528,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +544,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +553,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +562,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,12 +572,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -607,7 +608,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -626,7 +627,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -638,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,10 +648,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -681,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -724,13 +725,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -739,10 +740,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -771,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="K2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -815,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -835,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -856,13 +857,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
@@ -871,16 +872,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -924,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -959,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -994,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -1066,15 +1067,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1083,16 +1084,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1139,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -1179,9 +1180,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,644 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>AnnualSalary</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>TestReports</t>
+  </si>
+  <si>
+    <t>compares the report with hmrc data</t>
+  </si>
+  <si>
+    <t>This processes payroll</t>
+  </si>
+  <si>
+    <t>GeneralTaxRateMonthly</t>
+  </si>
+  <si>
+    <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
+  </si>
+  <si>
+    <t>Taxcode</t>
+  </si>
+  <si>
+    <t>TaxBasis</t>
+  </si>
+  <si>
+    <t>PayFrequency</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>ProcessPayrollForMonthlyTax</t>
+  </si>
+  <si>
+    <t>wk1 / mth1</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 125</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 130</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 133</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 134</t>
+  </si>
+  <si>
+    <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>This script executes the query to accumulated ytd in payroll</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>Payrolid</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>ExcelInputSheet</t>
+  </si>
+  <si>
+    <t>FirstReportNameInApplication</t>
+  </si>
+  <si>
+    <t>TestResultExcelFilePath</t>
+  </si>
+  <si>
+    <t>worksheetNo</t>
+  </si>
+  <si>
+    <t>PayrollView</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
+  </si>
+  <si>
+    <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>TestReportWorksheetNo</t>
+  </si>
+  <si>
+    <t>S1185L</t>
+  </si>
+  <si>
+    <t>SBR</t>
+  </si>
+  <si>
+    <t>SK585</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201819\\201819 Scottish Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>SK401</t>
+  </si>
+  <si>
+    <t>June-2018</t>
+  </si>
+  <si>
+    <t>Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31,10 +647,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -51,7 +667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -65,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -108,13 +724,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -123,10 +739,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -155,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -179,7 +795,7 @@
       <c r="K2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row customFormat="1" ht="30" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -199,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -219,7 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="30" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -240,13 +856,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
@@ -255,16 +871,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -308,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -343,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="3" s="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -378,7 +994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="4" s="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -413,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -450,15 +1066,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -467,16 +1083,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -523,7 +1139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -563,9 +1179,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,63 +251,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,10 +324,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -361,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,7 +414,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +519,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -527,13 +528,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +544,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +553,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +562,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -571,12 +572,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -607,7 +608,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -626,7 +627,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -638,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -647,10 +648,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -681,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -724,13 +725,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -739,10 +740,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -771,7 +772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="K2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="3" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -815,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="4" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -835,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="5" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -856,13 +857,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
@@ -871,16 +872,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -924,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
@@ -959,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="3" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
@@ -994,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
@@ -1066,15 +1067,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="A3:A5" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId2" ref="A3:A5"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1083,16 +1084,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1139,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -1179,9 +1180,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth3CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
